--- a/data/long_razon/P23_8-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_8-Urba-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-43,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>69,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-17,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>49,49%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-59,03; -20,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,05; 155,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 59,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 72,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 1,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,18; 89,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-23,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,88%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,4; 14,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,89; 51,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-39,34; 15,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 30,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 3,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 26,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-23,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-46,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>49,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-34,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-65,0; 80,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-44,99; 92,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-75,04; 8,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 190,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,77; 18,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 93,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-33,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,64 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,55; -13,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 68,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 14,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 45,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,65; -5,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 44,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/P23_8-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_8-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.4350479332245009</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.6072699101541341</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.04988826477565311</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.2574503163497271</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.3405351571128631</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.112355398063262</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.1556654584805493</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.458883280587566</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.08325015752783765</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.6011960969155743</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.09342202305501421</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2739869620596777</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.08574564614326938</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.0345887123700109</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.1989434797002851</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.3186681588729302</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.1585273702506381</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.1581410076251602</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-0.2112222271715301</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.416275902283663</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.4696315389702487</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.6745970268923599</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.7278025889097508</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.5068028297223989</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.07816438037008258</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.842791671691077</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.3736900807643033</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.2001698083046796</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.002497381937410289</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.3895238905100556</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.1556209412700547</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.01554978848774025</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.3671001335090732</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.1775066741598556</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.006401597455292391</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.3782939518585679</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.4555638293028169</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.307955108292462</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.08497756076114955</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.3731710489268349</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.2905939014959925</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.002028175169969855</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.3595309028385958</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.2350260544952177</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.04487187888688044</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.1756928415645255</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.4861648143855821</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.112308485311628</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1464031471511583</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3283439554147647</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.9122921274116387</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.0617827651109424</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.2702528688827687</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.7855644282689082</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,107 +853,215 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.2499029080574091</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.04394382897282945</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.096451332493082</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.5183808221901084</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.4862061594729207</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.6198177480039103</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.3767183543677291</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.2071830791482061</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.8483183446974628</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.6550660608157363</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.5014596256214684</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.1988369106277198</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.7695175956628048</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.1507022081169831</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.1079333717249381</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.612422535106049</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2253650564516105</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>0.03866864017301537</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.8235092479766073</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.9015794275424855</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.455659871231188</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-0.03502078878762584</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.873255311401235</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.979942945044607</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.1357794229803286</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.8855860765269913</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>2.193840223155312</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.3246295105905814</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2350768666475224</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3001381344279352</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.03707724281163055</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.1996981601938785</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.2620384495898403</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.1936114290275114</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.2172987860159078</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.2803291084497018</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.46216128371629</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.03344252086570997</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.02998641843253424</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2198995855373205</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.004888746892553882</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.01584995675414023</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.3091787145270359</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.03100689731661431</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.07353635014229339</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.1083730920879632</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.6075057976584488</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.6905213232219398</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.1555177772987745</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.4549030373712242</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.5504786570639743</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>-0.04430450044258804</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.4158205820542865</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.5367558047761301</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1069,13 +1070,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
